--- a/TestData/T2327_TMTC0002473_VerifyTheRolesAvailableToRegistered.xlsx
+++ b/TestData/T2327_TMTC0002473_VerifyTheRolesAvailableToRegistered.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,9 +37,6 @@
     <t>StdUser</t>
   </si>
   <si>
-    <t>Emre Abale</t>
-  </si>
-  <si>
     <t>TeamMember</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>Project Kelso XI</t>
+  </si>
+  <si>
+    <t>Rob Oudman</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,26 +397,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/T2327_TMTC0002473_VerifyTheRolesAvailableToRegistered.xlsx
+++ b/TestData/T2327_TMTC0002473_VerifyTheRolesAvailableToRegistered.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,6 +37,9 @@
     <t>StdUser</t>
   </si>
   <si>
+    <t>Emre Abale</t>
+  </si>
+  <si>
     <t>TeamMember</t>
   </si>
   <si>
@@ -50,9 +53,6 @@
   </si>
   <si>
     <t>Project Kelso XI</t>
-  </si>
-  <si>
-    <t>Rob Oudman</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,26 +397,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
